--- a/ML_Machine_Learning_Basic/Confusion Matrix Figure.xlsx
+++ b/ML_Machine_Learning_Basic/Confusion Matrix Figure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Jupyter/ML/ML_Machine_Learning_Basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA01D7F-CAB9-4942-85BB-2A19A9511C7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189729F-9636-4E4F-A8A4-71A28D319482}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{C04E7560-0769-5348-84B3-81BBC8E9976D}"/>
   </bookViews>
@@ -336,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Accuracy=TP/(TP+FN+TN+FP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prediction Negative=(FN+TN)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,6 +645,10 @@
   </si>
   <si>
     <t>PR曲线: x轴 Recall; y轴Precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy=(TP+TN)/(TP+FN+TN+FP)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,123 +1089,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1236,10 +1119,127 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2884,29 +2884,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="9">
         <v>1</v>
       </c>
@@ -2914,17 +2914,17 @@
         <v>0</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="42"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="50"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="50" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="9">
@@ -2937,10 +2937,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="14">
         <v>100</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="50" customHeight="1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="9">
         <v>0</v>
       </c>
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="15">
         <v>30</v>
       </c>
@@ -2979,50 +2979,50 @@
       <c r="E5" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="25" customHeight="1">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="F11" s="39" t="s">
+      <c r="D11" s="51"/>
+      <c r="F11" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="32"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="25" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="38" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -3031,10 +3031,10 @@
       <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="46"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
@@ -3043,16 +3043,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="7">
         <v>284335</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="7">
         <v>100</v>
       </c>
@@ -3061,8 +3061,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="31" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="38" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3074,10 +3074,10 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="46"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="6" t="s">
         <v>6</v>
       </c>
@@ -3086,16 +3086,16 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="25" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="8">
         <v>472</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
       <c r="H16" s="8">
         <v>30</v>
       </c>
@@ -3105,6 +3105,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="F3:G3"/>
@@ -3113,17 +3124,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3150,28 +3150,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="F1" s="39" t="s">
+      <c r="D1" s="60"/>
+      <c r="F1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="9">
         <v>1</v>
       </c>
@@ -3179,17 +3179,17 @@
         <v>0</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="42"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="50"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="50" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="9">
@@ -3201,10 +3201,10 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="14">
         <v>100</v>
       </c>
@@ -3213,7 +3213,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="50" customHeight="1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="9">
         <v>0</v>
       </c>
@@ -3223,10 +3223,10 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="15">
         <v>30</v>
       </c>
@@ -3236,50 +3236,50 @@
     </row>
     <row r="5" spans="1:9" ht="50" customHeight="1"/>
     <row r="11" spans="1:9" ht="25" customHeight="1">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="F11" s="39" t="s">
+      <c r="D11" s="51"/>
+      <c r="F11" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9">
         <v>1</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="32"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="25" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="38">
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -3288,10 +3288,10 @@
       <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="46"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
@@ -3300,16 +3300,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="7">
         <v>100</v>
       </c>
@@ -3318,8 +3318,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="31">
+      <c r="A15" s="57"/>
+      <c r="B15" s="38">
         <v>0</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3331,10 +3331,10 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="46"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="6" t="s">
         <v>6</v>
       </c>
@@ -3343,16 +3343,16 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="25" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
       <c r="H16" s="8" t="s">
         <v>24</v>
       </c>
@@ -3362,11 +3362,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F15:G16"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A11:B11"/>
@@ -3381,6 +3376,11 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:G16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3394,7 +3394,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="92" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3408,18 +3408,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="9">
         <v>1</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="50" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="9">
@@ -3443,7 +3443,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50" customHeight="1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="9">
         <v>0</v>
       </c>
@@ -3456,40 +3456,40 @@
     </row>
     <row r="5" spans="1:7" ht="50" customHeight="1"/>
     <row r="11" spans="1:7" ht="25" customHeight="1">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66" t="s">
+      <c r="D11" s="78"/>
+      <c r="E11" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="75">
+      <c r="B12" s="64"/>
+      <c r="C12" s="36">
         <v>1</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="37">
         <v>0</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:7" ht="25" customHeight="1">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="77">
+      <c r="B13" s="72">
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -3498,36 +3498,36 @@
       <c r="D13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="56" t="s">
-        <v>34</v>
+      <c r="E13" s="75" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="57"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24" customHeight="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="77">
+      <c r="A15" s="70"/>
+      <c r="B15" s="72">
         <v>0</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3536,102 +3536,97 @@
       <c r="D15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="57" t="s">
-        <v>35</v>
+      <c r="E15" s="76" t="s">
+        <v>34</v>
       </c>
       <c r="F15" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>39</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="50" customHeight="1">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="66"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" ht="25" customHeight="1">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="58" t="s">
-        <v>47</v>
+      <c r="E18" s="66" t="s">
+        <v>46</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" ht="25" customHeight="1">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="59"/>
+        <v>44</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="23" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="50" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="60"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="20"/>
       <c r="G20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A3:A4"/>
@@ -3642,6 +3637,11 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
